--- a/REGULAR/ORSAL, MARK LESTER BAYAS.xlsx
+++ b/REGULAR/ORSAL, MARK LESTER BAYAS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30208690-13A7-4ACB-9EF6-5A98C6365AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -197,11 +196,20 @@
   <si>
     <t>2022</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/24,25/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -577,6 +585,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,9 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,7 +853,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -893,7 +900,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +943,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1000,7 +1007,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1060,7 +1067,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1133,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,7 +1196,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1294,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1353,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1418,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1461,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1536,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1722,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1788,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1846,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1912,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1968,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2043,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2086,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2152,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2208,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,25 +2304,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2622,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2632,7 +2639,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2640,103 +2647,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="A12" sqref="A12:A16"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>44013</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -2751,7 +2758,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -2764,24 +2771,24 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -2825,7 +2832,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.75</v>
+        <v>32.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2835,13 +2842,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>33.75</v>
+        <v>40.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="21"/>
@@ -2862,7 +2869,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>44013</v>
       </c>
@@ -2882,7 +2889,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>44044</v>
       </c>
@@ -2902,7 +2909,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>44075</v>
       </c>
@@ -2922,7 +2929,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>44105</v>
       </c>
@@ -2942,7 +2949,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>44136</v>
       </c>
@@ -2962,7 +2969,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>44166</v>
       </c>
@@ -2982,8 +2989,8 @@
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="21"/>
@@ -3000,7 +3007,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>44197</v>
       </c>
@@ -3020,7 +3027,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>44228</v>
       </c>
@@ -3040,7 +3047,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>44256</v>
       </c>
@@ -3060,7 +3067,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>44287</v>
       </c>
@@ -3080,7 +3087,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>44317</v>
       </c>
@@ -3100,7 +3107,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>44348</v>
       </c>
@@ -3120,7 +3127,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>44378</v>
       </c>
@@ -3140,7 +3147,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>44409</v>
       </c>
@@ -3160,7 +3167,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>44440</v>
       </c>
@@ -3180,7 +3187,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>44470</v>
       </c>
@@ -3200,7 +3207,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>44501</v>
       </c>
@@ -3220,7 +3227,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>44531</v>
       </c>
@@ -3244,8 +3251,8 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="21"/>
@@ -3262,7 +3269,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>44562</v>
       </c>
@@ -3282,7 +3289,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>44593</v>
       </c>
@@ -3302,7 +3309,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>44621</v>
       </c>
@@ -3322,7 +3329,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>44652</v>
       </c>
@@ -3342,7 +3349,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>44682</v>
       </c>
@@ -3362,7 +3369,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>44713</v>
       </c>
@@ -3382,7 +3389,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>44743</v>
       </c>
@@ -3402,7 +3409,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>44774</v>
       </c>
@@ -3422,7 +3429,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>44805</v>
       </c>
@@ -3442,56 +3449,74 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="42">
+        <v>44835</v>
+      </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D40" s="41"/>
       <c r="E40" s="10"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G40" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H40" s="41"/>
       <c r="I40" s="10"/>
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="42">
+        <v>44866</v>
+      </c>
       <c r="B41" s="21"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D41" s="41"/>
       <c r="E41" s="10"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G41" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H41" s="41"/>
       <c r="I41" s="10"/>
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="41"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="42">
+        <v>44896</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="41">
+        <v>5</v>
+      </c>
       <c r="E42" s="10"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="41"/>
       <c r="I42" s="10"/>
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="50" t="s">
+        <v>51</v>
+      </c>
       <c r="B43" s="21"/>
       <c r="C43" s="14"/>
       <c r="D43" s="41"/>
@@ -3506,71 +3531,93 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="42">
+        <v>44927</v>
+      </c>
       <c r="B44" s="21"/>
-      <c r="C44" s="14"/>
+      <c r="C44" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D44" s="41"/>
       <c r="E44" s="10"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G44" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H44" s="41"/>
       <c r="I44" s="10"/>
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="42">
+        <v>44958</v>
+      </c>
       <c r="B45" s="21"/>
-      <c r="C45" s="14"/>
+      <c r="C45" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="41"/>
       <c r="E45" s="10"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="41"/>
       <c r="I45" s="10"/>
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="42">
+        <v>44986</v>
+      </c>
       <c r="B46" s="21"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="41"/>
       <c r="E46" s="10"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="41"/>
       <c r="I46" s="10"/>
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="14"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="42">
+        <v>45017</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D47" s="41"/>
       <c r="E47" s="10"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H47" s="41"/>
+      <c r="G47" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="41">
+        <v>2</v>
+      </c>
       <c r="I47" s="10"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
       <c r="B48" s="21"/>
       <c r="C48" s="14"/>
@@ -3586,7 +3633,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="21"/>
       <c r="C49" s="14"/>
@@ -3602,7 +3649,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="21"/>
       <c r="C50" s="14"/>
@@ -3618,7 +3665,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="21"/>
       <c r="C51" s="14"/>
@@ -3634,7 +3681,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
       <c r="B52" s="21"/>
       <c r="C52" s="14"/>
@@ -3650,7 +3697,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="21"/>
       <c r="C53" s="14"/>
@@ -3666,7 +3713,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
       <c r="B54" s="21"/>
       <c r="C54" s="14"/>
@@ -3682,7 +3729,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="21"/>
       <c r="C55" s="14"/>
@@ -3698,7 +3745,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="21"/>
       <c r="C56" s="14"/>
@@ -3714,7 +3761,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="21"/>
       <c r="C57" s="14"/>
@@ -3730,7 +3777,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="21"/>
       <c r="C58" s="14"/>
@@ -3746,7 +3793,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="21"/>
       <c r="C59" s="14"/>
@@ -3762,7 +3809,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="21"/>
       <c r="C60" s="14"/>
@@ -3778,7 +3825,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="21"/>
       <c r="C61" s="14"/>
@@ -3794,7 +3841,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="B62" s="21"/>
       <c r="C62" s="14"/>
@@ -3810,7 +3857,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="21"/>
       <c r="C63" s="14"/>
@@ -3826,7 +3873,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="21"/>
       <c r="C64" s="14"/>
@@ -3842,7 +3889,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
       <c r="B65" s="21"/>
       <c r="C65" s="14"/>
@@ -3858,7 +3905,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
       <c r="B66" s="21"/>
       <c r="C66" s="14"/>
@@ -3874,7 +3921,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
       <c r="B67" s="21"/>
       <c r="C67" s="14"/>
@@ -3890,7 +3937,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="21"/>
       <c r="C68" s="14"/>
@@ -3906,7 +3953,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
       <c r="B69" s="21"/>
       <c r="C69" s="14"/>
@@ -3922,7 +3969,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
       <c r="B70" s="21"/>
       <c r="C70" s="14"/>
@@ -3938,7 +3985,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="21"/>
       <c r="C71" s="14"/>
@@ -3954,7 +4001,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
       <c r="B72" s="21"/>
       <c r="C72" s="14"/>
@@ -3970,7 +4017,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="21"/>
       <c r="C73" s="14"/>
@@ -3986,7 +4033,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
       <c r="B74" s="21"/>
       <c r="C74" s="14"/>
@@ -4002,7 +4049,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
@@ -4018,7 +4065,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
       <c r="B76" s="21"/>
       <c r="C76" s="14"/>
@@ -4034,7 +4081,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
       <c r="B77" s="21"/>
       <c r="C77" s="14"/>
@@ -4050,7 +4097,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
@@ -4066,7 +4113,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -4082,7 +4129,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -4098,7 +4145,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
@@ -4114,7 +4161,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
@@ -4130,7 +4177,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
@@ -4146,7 +4193,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -4162,7 +4209,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -4178,7 +4225,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -4194,7 +4241,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -4210,7 +4257,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -4226,7 +4273,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -4242,7 +4289,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -4258,7 +4305,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -4274,7 +4321,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="42"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -4290,7 +4337,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="42"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -4306,7 +4353,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -4322,7 +4369,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -4338,7 +4385,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -4354,7 +4401,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -4370,7 +4417,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -4386,7 +4433,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -4402,7 +4449,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -4418,7 +4465,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -4434,7 +4481,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -4450,7 +4497,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -4466,7 +4513,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -4482,7 +4529,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -4498,7 +4545,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -4514,7 +4561,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -4530,7 +4577,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -4546,7 +4593,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -4562,7 +4609,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -4578,7 +4625,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -4594,7 +4641,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -4610,7 +4657,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -4626,7 +4673,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -4642,7 +4689,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -4658,7 +4705,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -4674,7 +4721,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -4690,7 +4737,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -4706,7 +4753,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -4722,7 +4769,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -4738,7 +4785,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -4754,7 +4801,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -4770,7 +4817,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -4786,7 +4833,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -4802,7 +4849,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -4818,7 +4865,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -4834,7 +4881,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -4850,7 +4897,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -4866,7 +4913,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -4882,7 +4929,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="16"/>
       <c r="C130" s="44"/>
@@ -4913,10 +4960,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4939,41 +4986,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -5002,7 +5049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
@@ -5022,17 +5069,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -5046,14 +5093,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="48"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -5080,7 +5127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -5106,7 +5153,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -5132,7 +5179,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -5158,7 +5205,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -5184,7 +5231,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -5210,7 +5257,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -5236,7 +5283,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -5262,7 +5309,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -5282,7 +5329,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -5302,7 +5349,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -5322,7 +5369,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -5343,7 +5390,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -5364,7 +5411,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -5385,7 +5432,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -5406,7 +5453,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -5427,7 +5474,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -5448,7 +5495,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -5469,7 +5516,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -5490,7 +5537,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -5511,7 +5558,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -5532,7 +5579,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -5553,7 +5600,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -5574,7 +5621,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -5595,7 +5642,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -5616,7 +5663,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -5637,7 +5684,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -5658,7 +5705,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -5679,7 +5726,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -5700,7 +5747,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -5721,7 +5768,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -5742,7 +5789,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -5751,7 +5798,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -5760,7 +5807,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -5769,7 +5816,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -5778,7 +5825,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -5787,7 +5834,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -5796,7 +5843,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -5805,7 +5852,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -5814,7 +5861,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -5823,7 +5870,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -5832,7 +5879,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -5841,7 +5888,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -5850,7 +5897,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -5859,7 +5906,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -5868,7 +5915,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -5877,7 +5924,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -5886,7 +5933,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -5895,7 +5942,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -5904,7 +5951,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -5913,7 +5960,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -5922,7 +5969,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -5931,7 +5978,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -5940,7 +5987,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -5949,7 +5996,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -5958,7 +6005,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -5967,7 +6014,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -5976,7 +6023,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -5985,7 +6032,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -5994,7 +6041,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -6003,7 +6050,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ORSAL, MARK LESTER BAYAS.xlsx
+++ b/REGULAR/ORSAL, MARK LESTER BAYAS.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>4/24,25/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,6 +592,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2304,7 +2313,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2651,12 +2660,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="A12" sqref="A12:A16"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,70 +2687,70 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58">
+      <c r="F3" s="59">
         <v>44013</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -2774,18 +2783,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2832,7 +2841,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.5</v>
+        <v>33.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2842,7 +2851,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.5</v>
+        <v>40.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3618,15 +3627,19 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="42">
+        <v>45047</v>
+      </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="14"/>
+      <c r="C48" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D48" s="41"/>
       <c r="E48" s="10"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="41"/>
       <c r="I48" s="10"/>
@@ -3634,8 +3647,12 @@
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="42">
+        <v>45078</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="C49" s="14"/>
       <c r="D49" s="41"/>
       <c r="E49" s="10"/>
@@ -3647,11 +3664,15 @@
       <c r="H49" s="41"/>
       <c r="I49" s="10"/>
       <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
+      <c r="K49" s="51">
+        <v>45077</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
-      <c r="B50" s="21"/>
+      <c r="B50" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="C50" s="14"/>
       <c r="D50" s="41"/>
       <c r="E50" s="10"/>
@@ -3660,13 +3681,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="41"/>
+      <c r="H50" s="41">
+        <v>1</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
+      <c r="K50" s="51">
+        <v>45082</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="42">
+        <v>45108</v>
+      </c>
       <c r="B51" s="21"/>
       <c r="C51" s="14"/>
       <c r="D51" s="41"/>
@@ -3682,7 +3709,9 @@
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="42">
+        <v>45139</v>
+      </c>
       <c r="B52" s="21"/>
       <c r="C52" s="14"/>
       <c r="D52" s="41"/>
@@ -3698,7 +3727,9 @@
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="42">
+        <v>45170</v>
+      </c>
       <c r="B53" s="21"/>
       <c r="C53" s="14"/>
       <c r="D53" s="41"/>
@@ -4930,20 +4961,36 @@
       <c r="K129" s="21"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="45"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="41"/>
       <c r="E130" s="10"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="45"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="41"/>
       <c r="I130" s="10"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="16"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="43"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="45"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5008,17 +5055,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -5093,12 +5140,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="48"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
